--- a/biology/Botanique/A.C.Sm/A.C.Sm..xlsx
+++ b/biology/Botanique/A.C.Sm/A.C.Sm..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Charles Smith (né le 5 avril 1906 et mort le 23 mai 1999) est un botaniste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Charles Smith fut directeur du National Museum of Natural History et président de plusieurs sociétés savantes importantes, comme l’American Society of Plant Taxonomists.
 Il est élu à la National Academy of Sciences en 1963. Il travailla aux États-Unis ainsi qu’aux îles Fidji.
@@ -543,7 +557,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wagner, W. L. and D. H. Lorence. (2001) "Albert Charles Smith (1906-1999): a monumental botanist." Allertonia 8 : 329-339.</t>
         </is>
@@ -573,7 +589,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Albert Charles Smith » (voir la liste des auteurs) (version du 26 octobre 2008).</t>
         </is>
